--- a/data/trans_orig/ESTUDIOS-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/ESTUDIOS-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>37672</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26682</v>
+        <v>27247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51664</v>
+        <v>51284</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06449195686005091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04567749683494639</v>
+        <v>0.04664379515919192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08844466098181833</v>
+        <v>0.08779311411618623</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>51</v>
@@ -765,19 +765,19 @@
         <v>56515</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>41608</v>
+        <v>43108</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>72588</v>
+        <v>73369</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06127384366790637</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04511220901193759</v>
+        <v>0.04673778772541631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07870046683203354</v>
+        <v>0.079547486281406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>87</v>
@@ -786,19 +786,19 @@
         <v>94187</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76161</v>
+        <v>74775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114202</v>
+        <v>114174</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06252167967042137</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05055584384725561</v>
+        <v>0.04963555055312911</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07580755657706097</v>
+        <v>0.07578878488826357</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>243797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>220759</v>
+        <v>220976</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>267761</v>
+        <v>265714</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4173600269973693</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3779198888613192</v>
+        <v>0.3782925451861133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4583835554492938</v>
+        <v>0.454879330969628</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>335</v>
@@ -836,19 +836,19 @@
         <v>351085</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322304</v>
+        <v>319308</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>381762</v>
+        <v>380867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.380649147628728</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.349444490846925</v>
+        <v>0.3461960396473429</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4139092166784422</v>
+        <v>0.4129385587634916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>569</v>
@@ -857,19 +857,19 @@
         <v>594882</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>555314</v>
+        <v>552702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>635176</v>
+        <v>629836</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3948839349792776</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3686181377579303</v>
+        <v>0.3668847727347251</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4216308086488112</v>
+        <v>0.4180862381083428</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>302672</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>278369</v>
+        <v>281688</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>328305</v>
+        <v>325966</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5181480161425798</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.476544136634213</v>
+        <v>0.4822264290331288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5620299757092269</v>
+        <v>0.5580258890181446</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>499</v>
@@ -907,19 +907,19 @@
         <v>514733</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>485480</v>
+        <v>487416</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>545985</v>
+        <v>548720</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5580770087033656</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5263612538565767</v>
+        <v>0.5284598301061435</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5919610540487827</v>
+        <v>0.5949257077998409</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>803</v>
@@ -928,19 +928,19 @@
         <v>817404</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>779040</v>
+        <v>781733</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>857676</v>
+        <v>859777</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.542594385350301</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5171281874474664</v>
+        <v>0.5189158506537342</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5693265850279345</v>
+        <v>0.5707213182067246</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>113649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93287</v>
+        <v>94978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135491</v>
+        <v>136497</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1054360335628807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08654533164555163</v>
+        <v>0.08811397544400822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1256998556662543</v>
+        <v>0.12663283541211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -1053,19 +1053,19 @@
         <v>89569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71669</v>
+        <v>73541</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108995</v>
+        <v>109806</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08469564305160565</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06776973241115138</v>
+        <v>0.06953935625226393</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1030647687901978</v>
+        <v>0.1038321673039142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -1074,19 +1074,19 @@
         <v>203218</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>176471</v>
+        <v>176027</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>231005</v>
+        <v>233280</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09516469230787115</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08263959277650434</v>
+        <v>0.08243140485324023</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1081769801124515</v>
+        <v>0.109242719023955</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>590606</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>558087</v>
+        <v>558517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>624162</v>
+        <v>623041</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5479257659594104</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5177566475985961</v>
+        <v>0.5181553712282614</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5790564988144501</v>
+        <v>0.5780169243637282</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>527</v>
@@ -1124,19 +1124,19 @@
         <v>541591</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>511109</v>
+        <v>508454</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>573774</v>
+        <v>574510</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5121246869906455</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4833007635807821</v>
+        <v>0.4807903527190455</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5425559490896827</v>
+        <v>0.5432524036727931</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1102</v>
@@ -1145,19 +1145,19 @@
         <v>1132197</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1085006</v>
+        <v>1088380</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1178763</v>
+        <v>1174276</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5301958635650547</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5080966317034743</v>
+        <v>0.509676711158887</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5520022294527968</v>
+        <v>0.5499009744405583</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>373639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>340907</v>
+        <v>341864</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>404318</v>
+        <v>406113</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3466382004777088</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3162712658887896</v>
+        <v>0.3171592004008809</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3750998052748903</v>
+        <v>0.3767650983224166</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>417</v>
@@ -1195,19 +1195,19 @@
         <v>426378</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>392438</v>
+        <v>392777</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>455650</v>
+        <v>458155</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4031796699577488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3710860506779591</v>
+        <v>0.3714072757835901</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4308588953542244</v>
+        <v>0.433227884909672</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>791</v>
@@ -1216,19 +1216,19 @@
         <v>800017</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>758137</v>
+        <v>760283</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>848147</v>
+        <v>846854</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3746394441270742</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3550273507788682</v>
+        <v>0.3560324388011714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3971783532448472</v>
+        <v>0.3965728237680842</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>214907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>189597</v>
+        <v>187696</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>242880</v>
+        <v>242396</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1916088564782419</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1690425955638793</v>
+        <v>0.1673474625211117</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.216548826117771</v>
+        <v>0.2161176789002258</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>183</v>
@@ -1341,19 +1341,19 @@
         <v>191645</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>166295</v>
+        <v>167521</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216894</v>
+        <v>216363</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1928139377740874</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1673092711797969</v>
+        <v>0.168542319351871</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2182165094637698</v>
+        <v>0.2176826312380866</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>391</v>
@@ -1362,19 +1362,19 @@
         <v>406553</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>369915</v>
+        <v>366080</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>443880</v>
+        <v>441574</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1921750388674524</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1748566853406766</v>
+        <v>0.173043837327355</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2098191508555042</v>
+        <v>0.2087295397457883</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>646018</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>610959</v>
+        <v>610573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>674734</v>
+        <v>679586</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5759819681485808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5447235162626116</v>
+        <v>0.5443794647398018</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6015851655585046</v>
+        <v>0.6059106926278018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>513</v>
@@ -1412,19 +1412,19 @@
         <v>517357</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>486783</v>
+        <v>489105</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>551261</v>
+        <v>549795</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5205114158311351</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4897511310229609</v>
+        <v>0.4920865483597789</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5546221962557687</v>
+        <v>0.5531473014810655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1142</v>
@@ -1433,19 +1433,19 @@
         <v>1163375</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1117232</v>
+        <v>1117165</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1206547</v>
+        <v>1213323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5499202825592439</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5281086492490011</v>
+        <v>0.5280770337363734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5703272800150939</v>
+        <v>0.5735301568369537</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>260669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>234951</v>
+        <v>232636</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>290110</v>
+        <v>291285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2324091753731773</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2094798449378748</v>
+        <v>0.2074154254227724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2586582485190628</v>
+        <v>0.2597061324379099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>286</v>
@@ -1483,19 +1483,19 @@
         <v>284937</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258556</v>
+        <v>259495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>315763</v>
+        <v>312220</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2866746463947775</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2601322269972194</v>
+        <v>0.2610771233217852</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3176881622031478</v>
+        <v>0.3141237870289217</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>552</v>
@@ -1504,19 +1504,19 @@
         <v>545606</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505055</v>
+        <v>504213</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>583059</v>
+        <v>588552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2579046785733038</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2387366394441973</v>
+        <v>0.2383384719889705</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2756083580196707</v>
+        <v>0.2782051676249625</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>180471</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160350</v>
+        <v>159025</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200772</v>
+        <v>198780</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4035582122426774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3585646566703315</v>
+        <v>0.3556012052036695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4489532649704588</v>
+        <v>0.4444993060550292</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1629,19 +1629,19 @@
         <v>131902</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>114780</v>
+        <v>114492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>151689</v>
+        <v>149766</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3866308510113763</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.336441416063493</v>
+        <v>0.3355987031430419</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4446306135271105</v>
+        <v>0.4389932015031757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>301</v>
@@ -1650,19 +1650,19 @@
         <v>312373</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>283956</v>
+        <v>285773</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>338825</v>
+        <v>339972</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3962329758671197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3601870300768103</v>
+        <v>0.3624920243072755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4297861704303557</v>
+        <v>0.4312405327392644</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>193438</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>174062</v>
+        <v>174060</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>217610</v>
+        <v>214807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4325537059233524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3892265075558556</v>
+        <v>0.3892219129095652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.486606075379442</v>
+        <v>0.4803367863491729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>154</v>
@@ -1700,19 +1700,19 @@
         <v>151858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>133730</v>
+        <v>134566</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168793</v>
+        <v>170105</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4451253206711135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3919892632312874</v>
+        <v>0.3944394033053558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4947654335093971</v>
+        <v>0.4986106908099477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>345</v>
@@ -1721,19 +1721,19 @@
         <v>345296</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319741</v>
+        <v>317431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>372877</v>
+        <v>372162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4379940133871944</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4055784452552295</v>
+        <v>0.4026482168878693</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4729795639489053</v>
+        <v>0.4720726013198659</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>73291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59103</v>
+        <v>57470</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90980</v>
+        <v>88663</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1638880818339702</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.132162170138563</v>
+        <v>0.128511034792903</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2034428230350589</v>
+        <v>0.1982629882405558</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>57</v>
@@ -1771,19 +1771,19 @@
         <v>57398</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43960</v>
+        <v>45160</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72645</v>
+        <v>72627</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1682438283175101</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1288565974279274</v>
+        <v>0.1323722928055295</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2129353065928077</v>
+        <v>0.2128837137414613</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -1792,19 +1792,19 @@
         <v>130688</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>111727</v>
+        <v>110149</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151794</v>
+        <v>152945</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1657730107456859</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1417213934594827</v>
+        <v>0.1397195119199954</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1925441462797546</v>
+        <v>0.1940042394661777</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>546700</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>503096</v>
+        <v>500951</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>590402</v>
+        <v>590543</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1692134491111259</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1557173261644419</v>
+        <v>0.1550535246780725</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1827399890179448</v>
+        <v>0.1827837084785628</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>446</v>
@@ -1917,19 +1917,19 @@
         <v>469631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>428649</v>
+        <v>428225</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>509519</v>
+        <v>508394</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1416699376117293</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.129307083801549</v>
+        <v>0.1291792273604401</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1537025991228564</v>
+        <v>0.153362983312818</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>969</v>
@@ -1938,19 +1938,19 @@
         <v>1016331</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>953046</v>
+        <v>958833</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1076457</v>
+        <v>1077642</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1552646715570835</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1455965971015987</v>
+        <v>0.1464806858591506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.164450089070975</v>
+        <v>0.1646310932813283</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>1673859</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1614705</v>
+        <v>1618387</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1731158</v>
+        <v>1730010</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5180896144749398</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4997805239896378</v>
+        <v>0.500920149415765</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5358248070190218</v>
+        <v>0.5354693801752792</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1529</v>
@@ -1988,19 +1988,19 @@
         <v>1561892</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1500023</v>
+        <v>1504356</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1618373</v>
+        <v>1617798</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4711633003182588</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4524999981680134</v>
+        <v>0.453806989038415</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4882016418933343</v>
+        <v>0.4880280386174447</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3158</v>
@@ -2009,19 +2009,19 @@
         <v>3235751</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3158525</v>
+        <v>3160743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3311332</v>
+        <v>3323055</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4943248625616991</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4825271339309568</v>
+        <v>0.4828660065337531</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5058713949762149</v>
+        <v>0.5076623905278406</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1010270</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>958886</v>
+        <v>954315</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1069803</v>
+        <v>1060725</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3126969364139343</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2967924745380597</v>
+        <v>0.2953777134805579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3311234061971442</v>
+        <v>0.3283135217798736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1259</v>
@@ -2059,19 +2059,19 @@
         <v>1283446</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1222271</v>
+        <v>1228752</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1338475</v>
+        <v>1337633</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3871667620700119</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3687125973569756</v>
+        <v>0.3706677894723892</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4037670616880706</v>
+        <v>0.4035128650933271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2275</v>
@@ -2080,19 +2080,19 @@
         <v>2293716</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2213321</v>
+        <v>2220197</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2369240</v>
+        <v>2369070</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3504104658812174</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3381285377634491</v>
+        <v>0.339179004713218</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3619482078623972</v>
+        <v>0.3619222648897374</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>58096</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43938</v>
+        <v>44892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75096</v>
+        <v>77844</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0557444815866501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04215940898455419</v>
+        <v>0.04307557202918321</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07205671180453578</v>
+        <v>0.07469355729213403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -2445,19 +2445,19 @@
         <v>67532</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52996</v>
+        <v>51280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86514</v>
+        <v>84907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06035990807175167</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04736757464692469</v>
+        <v>0.04583377495234338</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0773265338098709</v>
+        <v>0.0758898462068726</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -2466,19 +2466,19 @@
         <v>125628</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105483</v>
+        <v>105368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149561</v>
+        <v>152176</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05813403953159427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0488120224400404</v>
+        <v>0.04875917378871651</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06920930406748534</v>
+        <v>0.07041953219872445</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>590063</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>559602</v>
+        <v>557365</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>622128</v>
+        <v>623504</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5661821827716453</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5369546551296611</v>
+        <v>0.5348082127985133</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5969501516742589</v>
+        <v>0.5982701176112345</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>523</v>
@@ -2516,19 +2516,19 @@
         <v>567803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>532402</v>
+        <v>535615</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>601287</v>
+        <v>605500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5075013582363785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4758605937680194</v>
+        <v>0.4787322519185296</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5374296202567667</v>
+        <v>0.5411948211284566</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1079</v>
@@ -2537,19 +2537,19 @@
         <v>1157865</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1108989</v>
+        <v>1113346</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1205238</v>
+        <v>1207364</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5358011917761759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5131839355437428</v>
+        <v>0.5151999594385155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5577226841593977</v>
+        <v>0.5587065337837804</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>394020</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>360243</v>
+        <v>360068</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>424649</v>
+        <v>425877</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3780733356417045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3456633529801902</v>
+        <v>0.345495444549231</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4074631327363556</v>
+        <v>0.4086410552680517</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>447</v>
@@ -2587,19 +2587,19 @@
         <v>483485</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>450045</v>
+        <v>446839</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>515753</v>
+        <v>515074</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4321387336918698</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4022493206745986</v>
+        <v>0.3993840048987755</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4609793421019683</v>
+        <v>0.4603722171863</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>815</v>
@@ -2608,19 +2608,19 @@
         <v>877505</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>830922</v>
+        <v>831038</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>924179</v>
+        <v>924476</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4060647686922298</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3845085063085906</v>
+        <v>0.3845619727162117</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4276628981312139</v>
+        <v>0.4278007016724516</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>83464</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65795</v>
+        <v>66562</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>103475</v>
+        <v>104444</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08570190317251189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06755970057399922</v>
+        <v>0.06834701638959466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1062496045460414</v>
+        <v>0.1072445766074081</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>95</v>
@@ -2733,19 +2733,19 @@
         <v>105363</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>86263</v>
+        <v>87240</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>129883</v>
+        <v>127417</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09646292699300331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07897660089757087</v>
+        <v>0.07987082535666791</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1189119442562481</v>
+        <v>0.1166540512930709</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>171</v>
@@ -2754,19 +2754,19 @@
         <v>188826</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>162968</v>
+        <v>160680</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>217895</v>
+        <v>217744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09139068209664808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0788755332483876</v>
+        <v>0.0777680596145261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1054596798427852</v>
+        <v>0.1053866733568343</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>609126</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>577204</v>
+        <v>577323</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>640011</v>
+        <v>640799</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6254595941085027</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5926822864535378</v>
+        <v>0.5928041854747463</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6571732249455163</v>
+        <v>0.6579820877560346</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>526</v>
@@ -2804,19 +2804,19 @@
         <v>565242</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>532630</v>
+        <v>532016</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>601303</v>
+        <v>601470</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5174972679795515</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4876399534376726</v>
+        <v>0.4870777290248894</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5505117659051011</v>
+        <v>0.5506650844974453</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1110</v>
@@ -2825,19 +2825,19 @@
         <v>1174368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1121844</v>
+        <v>1128293</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1216444</v>
+        <v>1225417</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5683856747743989</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5429645548512168</v>
+        <v>0.5460859657578645</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5887501170576656</v>
+        <v>0.5930932432940608</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>281295</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254366</v>
+        <v>251841</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>311978</v>
+        <v>309396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2888385027189854</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2611868456706571</v>
+        <v>0.2585944161214853</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3203442030451846</v>
+        <v>0.3176929185218133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>397</v>
@@ -2875,19 +2875,19 @@
         <v>421656</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>386336</v>
+        <v>388555</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>451601</v>
+        <v>453462</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3860398050274451</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3537034180901171</v>
+        <v>0.3557341401028893</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4134554417265145</v>
+        <v>0.4151586886428785</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>658</v>
@@ -2896,19 +2896,19 @@
         <v>702952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>657918</v>
+        <v>656632</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>749923</v>
+        <v>748577</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3402236431289529</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3184275664342382</v>
+        <v>0.3178051304055117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3629576458835629</v>
+        <v>0.3623058694945698</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>167073</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145113</v>
+        <v>144978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>189787</v>
+        <v>191704</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1891972716194777</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1643295247736766</v>
+        <v>0.1641761482720354</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.214919416865211</v>
+        <v>0.2170895112228005</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>126</v>
@@ -3021,19 +3021,19 @@
         <v>136934</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114085</v>
+        <v>117281</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161493</v>
+        <v>160847</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1563537239284722</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1302638448220978</v>
+        <v>0.1339132817608047</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.184396065583441</v>
+        <v>0.1836582090506919</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -3042,19 +3042,19 @@
         <v>304007</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>274942</v>
+        <v>273714</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>336464</v>
+        <v>335478</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1728433462960311</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1563183055577138</v>
+        <v>0.1556202476458485</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1912969909378811</v>
+        <v>0.1907365444360429</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>502441</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>475825</v>
+        <v>471511</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>535158</v>
+        <v>529947</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.568974917665817</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5388344827019096</v>
+        <v>0.5339489171096541</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6060246062589961</v>
+        <v>0.6001238639423369</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>395</v>
@@ -3092,19 +3092,19 @@
         <v>417097</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>385234</v>
+        <v>389208</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>447803</v>
+        <v>446509</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4762490087554145</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4398671832778922</v>
+        <v>0.4444044106597723</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5113098374681498</v>
+        <v>0.5098326309174861</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>865</v>
@@ -3113,19 +3113,19 @@
         <v>919537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>878569</v>
+        <v>875505</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>961051</v>
+        <v>960552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5228035173001762</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4995112234691378</v>
+        <v>0.49776893187173</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5464064940054801</v>
+        <v>0.5461223458000971</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>213549</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>190373</v>
+        <v>189227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>243044</v>
+        <v>239625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2418278107147054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2155830538839431</v>
+        <v>0.2142848126952347</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2752281233224388</v>
+        <v>0.2713569554724015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>300</v>
@@ -3163,19 +3163,19 @@
         <v>321765</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>293261</v>
+        <v>294708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>354334</v>
+        <v>351780</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3673972673161133</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3348510833723541</v>
+        <v>0.3365035868144204</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4045851305682224</v>
+        <v>0.4016684474584242</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>500</v>
@@ -3184,19 +3184,19 @@
         <v>535314</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>495630</v>
+        <v>496509</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>569682</v>
+        <v>579346</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3043531364037928</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2817909498432075</v>
+        <v>0.2822904784668881</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3238933739241681</v>
+        <v>0.3293877568150262</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>166597</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>144822</v>
+        <v>142149</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>191399</v>
+        <v>189460</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3311910241256219</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2879040641913577</v>
+        <v>0.2825894880337677</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3804977006644242</v>
+        <v>0.3766429611726191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -3309,19 +3309,19 @@
         <v>147868</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128263</v>
+        <v>126749</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>168602</v>
+        <v>169405</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3273092909616925</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.283914141646934</v>
+        <v>0.2805627116142403</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3732057727997485</v>
+        <v>0.3749841834895644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -3330,19 +3330,19 @@
         <v>314464</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>282781</v>
+        <v>284621</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>347893</v>
+        <v>347246</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3293543488593303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2961708252405763</v>
+        <v>0.2980979336519541</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3643662870515249</v>
+        <v>0.3636886779151391</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>257210</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>233331</v>
+        <v>233402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>281202</v>
+        <v>283542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5113279403612988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4638577926151242</v>
+        <v>0.4639987335093996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5590241389692426</v>
+        <v>0.5636769656709103</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>185</v>
@@ -3380,19 +3380,19 @@
         <v>200445</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179860</v>
+        <v>179407</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222447</v>
+        <v>222189</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4436906001830482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3981257119975476</v>
+        <v>0.3971220733269147</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4923923933015051</v>
+        <v>0.4918224399951694</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>426</v>
@@ -3401,19 +3401,19 @@
         <v>457654</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>422241</v>
+        <v>422785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>490216</v>
+        <v>490342</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4793247540172396</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4422347367240264</v>
+        <v>0.4428050687371322</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5134290591334404</v>
+        <v>0.5135609542388612</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>79217</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>63270</v>
+        <v>63153</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>96686</v>
+        <v>97914</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1574810355130793</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1257795028823832</v>
+        <v>0.1255472766407144</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1922106868981031</v>
+        <v>0.1946509262155978</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>96</v>
@@ -3451,19 +3451,19 @@
         <v>103455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85968</v>
+        <v>86340</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>122484</v>
+        <v>122592</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2290001088552592</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1902919908666144</v>
+        <v>0.191117089148401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2711223774910102</v>
+        <v>0.271361143784268</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>169</v>
@@ -3472,19 +3472,19 @@
         <v>182671</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>159057</v>
+        <v>158980</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>211171</v>
+        <v>209862</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1913208971234301</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1665884710434726</v>
+        <v>0.1665078285023071</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.221170539738129</v>
+        <v>0.2197993552618203</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>475229</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>432639</v>
+        <v>434503</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>517270</v>
+        <v>519769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.139684998728466</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1271664236694194</v>
+        <v>0.1277141789330049</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1520421359808347</v>
+        <v>0.1527768259324589</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>411</v>
@@ -3597,19 +3597,19 @@
         <v>457696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>419657</v>
+        <v>419857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>505404</v>
+        <v>506133</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1293422104280647</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1185924982046692</v>
+        <v>0.1186490309262478</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1428241879016929</v>
+        <v>0.1430301473003917</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>844</v>
@@ -3618,19 +3618,19 @@
         <v>932925</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>875384</v>
+        <v>875889</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>998193</v>
+        <v>991476</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.134411906062577</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1261215875379817</v>
+        <v>0.1261944412377571</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.143815478253929</v>
+        <v>0.1428476689869257</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>1958838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1898153</v>
+        <v>1898408</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2016623</v>
+        <v>2019718</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5757651275463259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5579277226567584</v>
+        <v>0.5580028553801738</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5927499507697316</v>
+        <v>0.5936597049113056</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1629</v>
@@ -3668,19 +3668,19 @@
         <v>1750586</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1689522</v>
+        <v>1685149</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1808553</v>
+        <v>1808875</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4947054609968187</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4774490378174071</v>
+        <v>0.4762132877353893</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5110865639074069</v>
+        <v>0.5111776240369952</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3480</v>
@@ -3689,19 +3689,19 @@
         <v>3709424</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3621869</v>
+        <v>3626348</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3794841</v>
+        <v>3783601</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5344382511985786</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.521823704470571</v>
+        <v>0.5224689126839593</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5467447504934613</v>
+        <v>0.5451253915619939</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>968081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>913688</v>
+        <v>914467</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1022271</v>
+        <v>1023204</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2845498737252081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.268562091363717</v>
+        <v>0.2687910348375057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3004779658374526</v>
+        <v>0.3007523892875247</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1240</v>
@@ -3739,19 +3739,19 @@
         <v>1330361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1267586</v>
+        <v>1274315</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1390354</v>
+        <v>1399743</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3759523285751166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.358212352466207</v>
+        <v>0.3601140024035832</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3929061194892779</v>
+        <v>0.3955593575741002</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2142</v>
@@ -3760,19 +3760,19 @@
         <v>2298442</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2215248</v>
+        <v>2224707</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2379885</v>
+        <v>2379079</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3311498427388444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3191635852263355</v>
+        <v>0.3205263845184543</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3428838128858508</v>
+        <v>0.3427676543997888</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>59179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46322</v>
+        <v>44481</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78241</v>
+        <v>75962</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05286012871852178</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04137661382571412</v>
+        <v>0.03973190305686232</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06988735848029731</v>
+        <v>0.0678517761647289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -4125,19 +4125,19 @@
         <v>76978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61336</v>
+        <v>62062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>97558</v>
+        <v>94451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06126476985391118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.048815466494423</v>
+        <v>0.04939350912939087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07764389637380083</v>
+        <v>0.07517059898623804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>127</v>
@@ -4146,19 +4146,19 @@
         <v>136157</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114368</v>
+        <v>112394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161480</v>
+        <v>160936</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0573046651598459</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04813457301091919</v>
+        <v>0.04730375623562236</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06796272358918193</v>
+        <v>0.06773350164777568</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>705630</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>669055</v>
+        <v>674362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>734806</v>
+        <v>738439</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6302902442397904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5976206075464082</v>
+        <v>0.6023602443904172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6563507285317284</v>
+        <v>0.6595957068296783</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -4196,19 +4196,19 @@
         <v>686457</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>648373</v>
+        <v>650125</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>719069</v>
+        <v>718705</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5463324101766336</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5160223985673114</v>
+        <v>0.5174161686593318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5722868128749438</v>
+        <v>0.5719976085372271</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1316</v>
@@ -4217,19 +4217,19 @@
         <v>1392088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1341974</v>
+        <v>1343758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1438491</v>
+        <v>1439191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5858917212074259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5648001681515921</v>
+        <v>0.565551274049346</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6054217433107674</v>
+        <v>0.6057160850814688</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>354723</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>325504</v>
+        <v>324050</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>389543</v>
+        <v>384978</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3168496270416878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2907503119713169</v>
+        <v>0.2894512218307014</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3479519894725428</v>
+        <v>0.3438739559011948</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>448</v>
@@ -4267,19 +4267,19 @@
         <v>493047</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>460257</v>
+        <v>456297</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>530800</v>
+        <v>528489</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3924028199694553</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3663056897586495</v>
+        <v>0.3631545202134248</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.422448845233416</v>
+        <v>0.4206100396783926</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>800</v>
@@ -4288,19 +4288,19 @@
         <v>847771</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>800866</v>
+        <v>799452</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>895103</v>
+        <v>896510</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3568036136327282</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3370626041045135</v>
+        <v>0.3364677327642802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3767244605033528</v>
+        <v>0.377316822954359</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>120557</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>101112</v>
+        <v>100060</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139541</v>
+        <v>139958</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1326516698395855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1112553422164377</v>
+        <v>0.1100976917563584</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1535397780251715</v>
+        <v>0.1539989852765094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>122</v>
@@ -4413,19 +4413,19 @@
         <v>124633</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104809</v>
+        <v>105680</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149705</v>
+        <v>147828</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1240751827915442</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1043399521353685</v>
+        <v>0.1052074278271116</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1490353214725831</v>
+        <v>0.1471669252031792</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -4434,19 +4434,19 @@
         <v>245190</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>215158</v>
+        <v>216055</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>277421</v>
+        <v>277903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1281490119019594</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1124531569528619</v>
+        <v>0.1129219302127311</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1449950471989753</v>
+        <v>0.1452466152800958</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>595607</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>566619</v>
+        <v>564703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>622191</v>
+        <v>621876</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6553590405896409</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6234629042142643</v>
+        <v>0.6213555482617061</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6846099644338165</v>
+        <v>0.6842642859236345</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>605</v>
@@ -4484,19 +4484,19 @@
         <v>634012</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>600010</v>
+        <v>600617</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>664905</v>
+        <v>665430</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6311767387176087</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5973264613558781</v>
+        <v>0.5979311472012588</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6619320249399472</v>
+        <v>0.6624542350106066</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1174</v>
@@ -4505,19 +4505,19 @@
         <v>1229618</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1184314</v>
+        <v>1192258</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1269037</v>
+        <v>1273382</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6426633257982284</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6189849628637106</v>
+        <v>0.6231371906934553</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6632655321470884</v>
+        <v>0.6655369079286746</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>192661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170726</v>
+        <v>169454</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217648</v>
+        <v>216871</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2119892895707736</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1878540323432352</v>
+        <v>0.1864537558481522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2394829901087358</v>
+        <v>0.2386277294928405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>222</v>
@@ -4555,19 +4555,19 @@
         <v>245847</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>220865</v>
+        <v>217809</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277882</v>
+        <v>274807</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.244748078490847</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2198772099787878</v>
+        <v>0.2168345388727305</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.276639099318556</v>
+        <v>0.2735778125191401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>421</v>
@@ -4576,19 +4576,19 @@
         <v>438508</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>403307</v>
+        <v>399620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>477533</v>
+        <v>474266</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2291876622998122</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2107893826458525</v>
+        <v>0.2088623578394075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.249583728614046</v>
+        <v>0.2478763150415624</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>183714</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>158598</v>
+        <v>158322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>208606</v>
+        <v>209147</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2247764028063294</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1940461783646341</v>
+        <v>0.1937086293769218</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2552316738638556</v>
+        <v>0.2558929662741303</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>171</v>
@@ -4701,19 +4701,19 @@
         <v>176884</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>152743</v>
+        <v>153342</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>201263</v>
+        <v>201569</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2302806372581737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1988524377760014</v>
+        <v>0.1996314976789063</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2620183350339584</v>
+        <v>0.2624176582110037</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>341</v>
@@ -4722,19 +4722,19 @@
         <v>360599</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>327004</v>
+        <v>327663</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>396780</v>
+        <v>391121</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2274431200468506</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2062538123115938</v>
+        <v>0.2066694786999168</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2502638400217697</v>
+        <v>0.2466948677421545</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>508519</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>479111</v>
+        <v>478843</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>536601</v>
+        <v>535315</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6221776639571488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5861974637376033</v>
+        <v>0.5858688678501054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6565367417020331</v>
+        <v>0.6549624454698357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>405</v>
@@ -4772,19 +4772,19 @@
         <v>421328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>392956</v>
+        <v>394427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>450190</v>
+        <v>451507</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5485150684399834</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5115786557480142</v>
+        <v>0.5134937535383581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5860904184387173</v>
+        <v>0.5878052712899193</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>887</v>
@@ -4793,19 +4793,19 @@
         <v>929846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>890504</v>
+        <v>888666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>970721</v>
+        <v>964903</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5864892652950339</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5616746148395426</v>
+        <v>0.5605149439365663</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6122702717498508</v>
+        <v>0.6086008606970911</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>125088</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>105862</v>
+        <v>105654</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>148182</v>
+        <v>146319</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1530459332365218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1295227415468203</v>
+        <v>0.1292689073666139</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1813026486372084</v>
+        <v>0.1790222573371341</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -4843,19 +4843,19 @@
         <v>169912</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147156</v>
+        <v>147729</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>195456</v>
+        <v>195185</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2212042943018429</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1915782790842967</v>
+        <v>0.1923246105655105</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2544582924971363</v>
+        <v>0.2541063122335128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>278</v>
@@ -4864,19 +4864,19 @@
         <v>295000</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>264219</v>
+        <v>265018</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>328027</v>
+        <v>328806</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1860676146581155</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1666528234244665</v>
+        <v>0.1671570110111941</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2068989472461185</v>
+        <v>0.2073901364629368</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>181529</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>160667</v>
+        <v>159468</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201797</v>
+        <v>203117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.35955450983711</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.318233289294043</v>
+        <v>0.3158584339326496</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3996997073998279</v>
+        <v>0.4023146442369789</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -4989,19 +4989,19 @@
         <v>169582</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146514</v>
+        <v>148175</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>192772</v>
+        <v>194376</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3494704909940281</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3019328399110628</v>
+        <v>0.3053559888726872</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.397261288245959</v>
+        <v>0.4005668058251012</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -5010,19 +5010,19 @@
         <v>351110</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>319785</v>
+        <v>317492</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>379286</v>
+        <v>384186</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3546124037876801</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3229749192179961</v>
+        <v>0.3206587665063043</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3830691061029595</v>
+        <v>0.388017812874087</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>248516</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>227561</v>
+        <v>224768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>274649</v>
+        <v>272187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.49223720832714</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4507300588409475</v>
+        <v>0.4451990551504683</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5439974178423214</v>
+        <v>0.5391218135589922</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>226</v>
@@ -5060,19 +5060,19 @@
         <v>236008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>212953</v>
+        <v>211391</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>257882</v>
+        <v>258185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4863606597943585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4388494240885349</v>
+        <v>0.4356314098367222</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5314382826661457</v>
+        <v>0.5320620419531983</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>456</v>
@@ -5081,19 +5081,19 @@
         <v>484524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>452115</v>
+        <v>453114</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>515851</v>
+        <v>519801</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4893571536083259</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4566246398489622</v>
+        <v>0.4576336438132971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5209961284087726</v>
+        <v>0.5249860011915329</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>74826</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>59753</v>
+        <v>59466</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90474</v>
+        <v>90524</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.14820828183575</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1183520262246395</v>
+        <v>0.1177853638871568</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1792031183772259</v>
+        <v>0.1793005770304768</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -5131,19 +5131,19 @@
         <v>79663</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>61821</v>
+        <v>63660</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99008</v>
+        <v>98683</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1641688492116134</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1274003354159168</v>
+        <v>0.1311887265381641</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.204034738815643</v>
+        <v>0.2033648365385953</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>143</v>
@@ -5152,19 +5152,19 @@
         <v>154489</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132477</v>
+        <v>131803</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>177843</v>
+        <v>179285</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1560304426039939</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1337986778381766</v>
+        <v>0.1331180459878764</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1796166281637503</v>
+        <v>0.1810729118443293</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>544979</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>501853</v>
+        <v>501688</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>593037</v>
+        <v>592602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1626536101872077</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1497823889231414</v>
+        <v>0.1497328891903921</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1769969870374233</v>
+        <v>0.1768670575859933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>525</v>
@@ -5277,19 +5277,19 @@
         <v>548076</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>504743</v>
+        <v>509551</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>595678</v>
+        <v>595933</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1559537397893416</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1436234650717953</v>
+        <v>0.1449916166809879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1694988567334277</v>
+        <v>0.1695714043428582</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1024</v>
@@ -5298,19 +5298,19 @@
         <v>1093055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1033626</v>
+        <v>1033057</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1153728</v>
+        <v>1154927</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1592237433085428</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1505668391383501</v>
+        <v>0.1504839021867845</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1680618938218614</v>
+        <v>0.1682364996710431</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>2058273</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2005557</v>
+        <v>1998570</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2123534</v>
+        <v>2111296</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6143088562953177</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5985755299317465</v>
+        <v>0.5964900075330859</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6337865960189094</v>
+        <v>0.6301340646973009</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1898</v>
@@ -5348,19 +5348,19 @@
         <v>1977804</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1917361</v>
+        <v>1919378</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2038721</v>
+        <v>2043591</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5627794076641951</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5455803457168418</v>
+        <v>0.5461544050046313</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5801131057798804</v>
+        <v>0.5814987337178184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3833</v>
@@ -5369,19 +5369,19 @@
         <v>4036077</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>3948856</v>
+        <v>3958747</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4117473</v>
+        <v>4120488</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5879293685380559</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5752239656504503</v>
+        <v>0.5766648532808404</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.599786211167859</v>
+        <v>0.6002254358857182</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>747298</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>697470</v>
+        <v>702595</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>794200</v>
+        <v>797147</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2230375335174745</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2081659462319029</v>
+        <v>0.209695300277862</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2370358123452946</v>
+        <v>0.2379153009559113</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>887</v>
@@ -5419,19 +5419,19 @@
         <v>988470</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>936217</v>
+        <v>935535</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1045378</v>
+        <v>1048870</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2812668525464633</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2663983848741595</v>
+        <v>0.2662041836219542</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2974598826287086</v>
+        <v>0.2984533446500178</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1642</v>
@@ -5440,19 +5440,19 @@
         <v>1735769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1661197</v>
+        <v>1665803</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1815986</v>
+        <v>1814073</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2528468881534013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2419841793362293</v>
+        <v>0.2426550672651284</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2645320339043605</v>
+        <v>0.2642533566723126</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>22260</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13583</v>
+        <v>12925</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35943</v>
+        <v>35258</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.04463259745637814</v>
+        <v>0.04463259745637815</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02723455628522594</v>
+        <v>0.02591574620208055</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0720682298874875</v>
+        <v>0.07069367237335694</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -5805,19 +5805,19 @@
         <v>41735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30855</v>
+        <v>30472</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>56324</v>
+        <v>54794</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06692749889560341</v>
+        <v>0.0669274988956034</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04948004449540285</v>
+        <v>0.04886668498261457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09032379624645295</v>
+        <v>0.08786983518800068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>69</v>
@@ -5826,19 +5826,19 @@
         <v>63995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>50002</v>
+        <v>49427</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80936</v>
+        <v>83094</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05702003194812944</v>
+        <v>0.05702003194812945</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04455226658612776</v>
+        <v>0.04404017074049262</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07211482534533092</v>
+        <v>0.07403800065320723</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>313193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>288016</v>
+        <v>287907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334940</v>
+        <v>333469</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6279691018885704</v>
+        <v>0.6279691018885705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5774884970575354</v>
+        <v>0.5772703569906485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6715742217197226</v>
+        <v>0.6686244254967301</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>438</v>
@@ -5876,19 +5876,19 @@
         <v>354800</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>332315</v>
+        <v>332508</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>376649</v>
+        <v>375721</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5689730563732017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5329146981737992</v>
+        <v>0.5332245128844734</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6040101865711349</v>
+        <v>0.6025231937385299</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>701</v>
@@ -5897,19 +5897,19 @@
         <v>667993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>634354</v>
+        <v>635634</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>698995</v>
+        <v>701769</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5951898742662303</v>
+        <v>0.5951898742662302</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5652164844292367</v>
+        <v>0.566357477035855</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6228129399790583</v>
+        <v>0.6252838640692152</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>163286</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>140484</v>
+        <v>142979</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>185865</v>
+        <v>186997</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3273983006550515</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2816792140840766</v>
+        <v>0.2866801352570206</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3726696799481868</v>
+        <v>0.374938828940654</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>373</v>
@@ -5947,19 +5947,19 @@
         <v>227045</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>205768</v>
+        <v>206913</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>247316</v>
+        <v>247405</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.3640994447311947</v>
+        <v>0.3640994447311948</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3299782941725197</v>
+        <v>0.3318146079532419</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3966066811767137</v>
+        <v>0.3967492351427265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>546</v>
@@ -5968,19 +5968,19 @@
         <v>390332</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>363168</v>
+        <v>359418</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>422532</v>
+        <v>422043</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3477900937856405</v>
+        <v>0.3477900937856404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3235867202185744</v>
+        <v>0.3202453474834932</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3764807854858642</v>
+        <v>0.3760449819862091</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>83074</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>64284</v>
+        <v>65886</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>105367</v>
+        <v>106621</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.08663934701352627</v>
+        <v>0.0866393470135263</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06704306767340823</v>
+        <v>0.06871370734404482</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1098892431805994</v>
+        <v>0.1111975105137682</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>116</v>
@@ -6093,19 +6093,19 @@
         <v>92128</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76464</v>
+        <v>76720</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>110261</v>
+        <v>110381</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0826044379413895</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06855964159395896</v>
+        <v>0.06878926313549924</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09886305829793562</v>
+        <v>0.09897038842452849</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>186</v>
@@ -6114,19 +6114,19 @@
         <v>175202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>150301</v>
+        <v>151924</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>203118</v>
+        <v>205375</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08446971628496383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07246445642812788</v>
+        <v>0.07324691710567045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09792906228327371</v>
+        <v>0.09901705604766281</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>674942</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>643626</v>
+        <v>643240</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>705497</v>
+        <v>703637</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.7039130007165352</v>
+        <v>0.7039130007165354</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6712529882971524</v>
+        <v>0.6708498415961482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7357789676554349</v>
+        <v>0.7338392224787303</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>918</v>
@@ -6164,19 +6164,19 @@
         <v>701810</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>672896</v>
+        <v>674461</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>729083</v>
+        <v>728179</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6292593023489159</v>
+        <v>0.6292593023489157</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.6033345941295438</v>
+        <v>0.6047380158599813</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6537126993556157</v>
+        <v>0.6529028442667879</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1501</v>
@@ -6185,19 +6185,19 @@
         <v>1376752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1340201</v>
+        <v>1335404</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1418899</v>
+        <v>1415302</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6637705947580674</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6461483278865762</v>
+        <v>0.6438356210583723</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6840910717754736</v>
+        <v>0.6823568485411244</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>200827</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177506</v>
+        <v>176238</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>228824</v>
+        <v>225820</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2094476522699384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1851247177041894</v>
+        <v>0.183802654999253</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2386455764784616</v>
+        <v>0.2355127853809069</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>572</v>
@@ -6235,19 +6235,19 @@
         <v>321357</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>298328</v>
+        <v>297640</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>348963</v>
+        <v>348510</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.288136259709695</v>
+        <v>0.2881362597096949</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.26748811688505</v>
+        <v>0.2668714188641502</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3128881838181039</v>
+        <v>0.3124820520530078</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>828</v>
@@ -6256,19 +6256,19 @@
         <v>522184</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>489656</v>
+        <v>486861</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>554669</v>
+        <v>555296</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2517596889569687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2360769028728149</v>
+        <v>0.2347294122665338</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2674213525576857</v>
+        <v>0.267723771750311</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>236826</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>206865</v>
+        <v>208665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>267681</v>
+        <v>267362</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2266937265391228</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1980139978190346</v>
+        <v>0.1997375668425672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.256228441402979</v>
+        <v>0.2559230714511799</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>326</v>
@@ -6381,19 +6381,19 @@
         <v>244815</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>221307</v>
+        <v>219788</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>272537</v>
+        <v>270277</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2339644895322862</v>
+        <v>0.2339644895322861</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2114987758033461</v>
+        <v>0.2100468885085669</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2604585644299472</v>
+        <v>0.25829847332861</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>539</v>
@@ -6402,19 +6402,19 @@
         <v>481641</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>444916</v>
+        <v>440509</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>520822</v>
+        <v>518903</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2303320253873021</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2127695002594905</v>
+        <v>0.210661644799916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2490693603426168</v>
+        <v>0.2481514768125744</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>704055</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>671693</v>
+        <v>674806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>740055</v>
+        <v>735058</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6739325437306731</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6429550341120206</v>
+        <v>0.6459341923840298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7083915587616835</v>
+        <v>0.7036085828640727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>890</v>
@@ -6452,19 +6452,19 @@
         <v>634813</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>605666</v>
+        <v>607951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>663533</v>
+        <v>661075</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.606678465813055</v>
+        <v>0.6066784658130547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5788230758405859</v>
+        <v>0.5810069813560452</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6341254896842226</v>
+        <v>0.6317765862277497</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1565</v>
@@ -6473,19 +6473,19 @@
         <v>1338868</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1294215</v>
+        <v>1297928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1381570</v>
+        <v>1383951</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6402785194620907</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6189241206363069</v>
+        <v>0.6206998682312036</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6606993904719121</v>
+        <v>0.6618382076786554</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>103815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86479</v>
+        <v>87345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123868</v>
+        <v>123555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.099373729730204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08277899305242394</v>
+        <v>0.0836075882477935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1185686297558019</v>
+        <v>0.1182684507826616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>298</v>
@@ -6523,19 +6523,19 @@
         <v>166747</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>149483</v>
+        <v>149374</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186931</v>
+        <v>185576</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.159357044654659</v>
+        <v>0.1593570446546589</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1428575944652632</v>
+        <v>0.1427535715521501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1786466419256351</v>
+        <v>0.1773517747179183</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>437</v>
@@ -6544,19 +6544,19 @@
         <v>270563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245075</v>
+        <v>247401</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>295338</v>
+        <v>298688</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1293894551506073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1172007982957261</v>
+        <v>0.118312887557204</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1412376290993327</v>
+        <v>0.1428395643160629</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>365317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>331785</v>
+        <v>336360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>397406</v>
+        <v>395922</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3763994662277078</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3418503730482749</v>
+        <v>0.3465639700946712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4094616114284874</v>
+        <v>0.4079322862403497</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>500</v>
@@ -6669,19 +6669,19 @@
         <v>344915</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>322282</v>
+        <v>317958</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>371348</v>
+        <v>371899</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3805974995929849</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3556226093555256</v>
+        <v>0.350851460293268</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4097647868993034</v>
+        <v>0.4103730757549836</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>876</v>
@@ -6690,19 +6690,19 @@
         <v>710233</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>671862</v>
+        <v>668540</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>754281</v>
+        <v>752477</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3784265582867968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.357981654753254</v>
+        <v>0.3562119102790595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4018961339301209</v>
+        <v>0.4009349491688416</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>507237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475630</v>
+        <v>473951</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>542294</v>
+        <v>539766</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5226243151957608</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4900590581272783</v>
+        <v>0.4883288091162553</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5587453403145919</v>
+        <v>0.5561407045259581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>657</v>
@@ -6740,19 +6740,19 @@
         <v>466122</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>439774</v>
+        <v>436626</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490882</v>
+        <v>492238</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5143435337298964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4852693741250129</v>
+        <v>0.4817955244023313</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5416641845186507</v>
+        <v>0.5431611378531477</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1111</v>
@@ -6761,19 +6761,19 @@
         <v>973359</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>933082</v>
+        <v>930812</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1021472</v>
+        <v>1016982</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5186257985352347</v>
+        <v>0.5186257985352346</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4971652164956418</v>
+        <v>0.4959555265734971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5442612444331232</v>
+        <v>0.5418687494337087</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>98003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>79716</v>
+        <v>81053</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>117508</v>
+        <v>118862</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1009762185765313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08213451765094618</v>
+        <v>0.08351211960901558</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1210729132838219</v>
+        <v>0.1224681438346389</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>160</v>
@@ -6811,19 +6811,19 @@
         <v>95209</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>80697</v>
+        <v>81458</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>110933</v>
+        <v>110841</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1050589666771187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08904486181638289</v>
+        <v>0.08988474318166528</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1224097335965544</v>
+        <v>0.1223075470195914</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>271</v>
@@ -6832,19 +6832,19 @@
         <v>193213</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>169379</v>
+        <v>172927</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>218932</v>
+        <v>220015</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1029476431779685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09024870711846328</v>
+        <v>0.09213916240362741</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1166515159014879</v>
+        <v>0.1172285268167683</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>707477</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>654263</v>
+        <v>659493</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>761499</v>
+        <v>766895</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2037173435705553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1883943482250154</v>
+        <v>0.1899002190381401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2192728151022836</v>
+        <v>0.2208266124621835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>992</v>
@@ -6957,19 +6957,19 @@
         <v>723593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>680615</v>
+        <v>680033</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>771100</v>
+        <v>763659</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1960161055351848</v>
+        <v>0.1960161055351849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.184373794078841</v>
+        <v>0.1842160922280477</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2088854942185735</v>
+        <v>0.2068698565878102</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1670</v>
@@ -6978,19 +6978,19 @@
         <v>1431070</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1357787</v>
+        <v>1364327</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1497585</v>
+        <v>1500109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1997492009593467</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1895202999966784</v>
+        <v>0.1904331469387363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2090333329458967</v>
+        <v>0.2093857555927567</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>2199427</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2137763</v>
+        <v>2133324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2260535</v>
+        <v>2259727</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6333229347244069</v>
+        <v>0.6333229347244068</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6155668597210826</v>
+        <v>0.614288660531634</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6509186990195277</v>
+        <v>0.6506861791116251</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2903</v>
@@ -7028,19 +7028,19 @@
         <v>2157545</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2101460</v>
+        <v>2105020</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>2210948</v>
+        <v>2205266</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5844635454653857</v>
+        <v>0.5844635454653858</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5692705391872709</v>
+        <v>0.570234815225758</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.598929835580877</v>
+        <v>0.5973907061176316</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4878</v>
@@ -7049,19 +7049,19 @@
         <v>4356973</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4273269</v>
+        <v>4279273</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>4433469</v>
+        <v>4441189</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.6081476286780428</v>
+        <v>0.6081476286780426</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5964642505123062</v>
+        <v>0.597302265509442</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6188250131424566</v>
+        <v>0.6199025457969962</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>565933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>524008</v>
+        <v>524561</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>609372</v>
+        <v>607566</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1629597217050379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1508876445164183</v>
+        <v>0.1510469230961774</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1754679685987442</v>
+        <v>0.1749479133872453</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1403</v>
@@ -7099,19 +7099,19 @@
         <v>810359</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>771375</v>
+        <v>772562</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>856437</v>
+        <v>853442</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2195203489994294</v>
+        <v>0.2195203489994295</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2089600591085204</v>
+        <v>0.2092815857139485</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2320026132974281</v>
+        <v>0.2311914145666078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2082</v>
@@ -7120,19 +7120,19 @@
         <v>1376291</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1314482</v>
+        <v>1312383</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1436989</v>
+        <v>1432603</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1921031703626105</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1834757884348886</v>
+        <v>0.1831827853876154</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2005753263260784</v>
+        <v>0.1999631473203226</v>
       </c>
     </row>
     <row r="23">
